--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.15/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.15/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,240 +55,162 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>without</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>least</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>ironically</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>stupidity</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
     <t>chilling</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -301,268 +223,223 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>’</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>greatest</t>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>tool</t>
   </si>
   <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
   <si>
     <t>faster</t>
   </si>
   <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>regarding</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>want</t>
+  </si>
+  <si>
+    <t>anymore</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>sharing</t>
   </si>
   <si>
     <t>society</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>wild</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>deal</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>strongly</t>
+  </si>
+  <si>
+    <t>kind</t>
   </si>
   <si>
     <t>positive</t>
@@ -923,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -992,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1638795986622074</v>
+        <v>0.1903846153846154</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1010,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="K3">
-        <v>0.09930715935334873</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1034,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>32</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1042,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.108695652173913</v>
+        <v>0.1211538461538462</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1060,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>0.09930715935334873</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1084,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1055</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1092,37 +969,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1036789297658863</v>
+        <v>0.1134615384615385</v>
       </c>
       <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="K5">
-        <v>0.09237875288683603</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1134,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1142,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04849498327759198</v>
+        <v>0.05576923076923077</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -1163,16 +1040,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>0.08314087759815242</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1184,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03678929765886288</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1210,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="K7">
-        <v>0.06466512702078522</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1234,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1242,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02508361204013378</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1260,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K8">
-        <v>0.05311778290993072</v>
+        <v>0.05609756097560976</v>
       </c>
       <c r="L8">
         <v>23</v>
@@ -1292,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02508361204013378</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1310,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>0.04157043879907621</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="L9">
         <v>18</v>
@@ -1342,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02508361204013378</v>
+        <v>0.025</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1360,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>0.03002309468822171</v>
+        <v>0.04146341463414634</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1384,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1392,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02341137123745819</v>
+        <v>0.02115384615384616</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1410,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>0.02309468822170901</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1442,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02173913043478261</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1460,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>0.01847575057736721</v>
+        <v>0.02195121951219512</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1484,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1492,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02006688963210702</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1510,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K13">
-        <v>0.01847575057736721</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1534,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1542,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02006688963210702</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1560,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>0.01616628175519631</v>
+        <v>0.01707317073170732</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1584,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1592,13 +1469,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01672240802675585</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1610,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>0.0115473441108545</v>
+        <v>0.01707317073170732</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1634,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1642,13 +1519,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01672240802675585</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1660,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.0115473441108545</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1684,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>659</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1692,31 +1569,31 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01505016722408027</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>0.0115473441108545</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1734,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1742,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01505016722408027</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1760,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>0.009237875288683603</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -1784,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1792,13 +1669,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01505016722408027</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1810,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K19">
-        <v>0.009237875288683603</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -1834,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>777</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1842,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01337792642140468</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1860,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>0.009237875288683603</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -1884,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1892,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01337792642140468</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1910,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>0.009237875288683603</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1934,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1942,13 +1819,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01337792642140468</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1960,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="K22">
-        <v>0.009237875288683603</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1984,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1992,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01337792642140468</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2010,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>0.009237875288683603</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2034,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2042,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0117056856187291</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -2060,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>0.006928406466512702</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -2084,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2092,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01003344481605351</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -2110,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K25">
-        <v>0.006928406466512702</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -2134,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2142,7 +2019,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01003344481605351</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -2160,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="K26">
-        <v>0.006928406466512702</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2184,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2192,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01003344481605351</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2210,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="K27">
-        <v>0.006928406466512702</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2234,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2242,7 +2119,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01003344481605351</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2260,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>0.004878048780487805</v>
+      </c>
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28">
-        <v>0.006928406466512702</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
       <c r="M28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2284,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2292,13 +2169,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01003344481605351</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2310,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>0.006928406466512702</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2334,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2342,13 +2219,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01003344481605351</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2360,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>0.006928406466512702</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2384,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2392,7 +2269,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.008361204013377926</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2410,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="K31">
-        <v>0.006928406466512702</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2434,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2442,7 +2319,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008361204013377926</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2460,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="K32">
-        <v>0.006928406466512702</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2484,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2492,7 +2369,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008361204013377926</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2510,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="K33">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L33">
         <v>2</v>
@@ -2534,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>281</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2542,7 +2419,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008361204013377926</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2560,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -2584,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2592,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008361204013377926</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2610,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="K35">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -2634,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2642,7 +2519,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006688963210702341</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2660,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K36">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -2684,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2692,7 +2569,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005016722408026756</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2710,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K37">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -2734,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2742,7 +2619,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005016722408026756</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2760,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K38">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -2784,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2792,7 +2669,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005016722408026756</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2810,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="K39">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2834,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2842,7 +2719,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005016722408026756</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2860,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="K40">
-        <v>0.004618937644341801</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -2884,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2892,13 +2769,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005016722408026756</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2910,19 +2787,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2934,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2942,13 +2819,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005016722408026756</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2960,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="K42">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2984,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>313</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2992,13 +2869,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005016722408026756</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3010,31 +2887,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>5</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3042,13 +2919,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005016722408026756</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3060,19 +2937,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3084,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3092,13 +2969,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005016722408026756</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3110,19 +2987,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3134,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3142,13 +3019,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005016722408026756</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3160,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K46">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3184,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1734</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3192,13 +3069,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3210,19 +3087,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="K47">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3234,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3242,13 +3119,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3260,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="K48">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3284,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3292,37 +3169,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="K49">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3334,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3342,13 +3219,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3360,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K50">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3384,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>614</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3392,13 +3269,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3410,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="K51">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3434,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3442,13 +3319,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3460,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="K52">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3484,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3492,13 +3369,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3510,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="K53">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3534,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3542,13 +3419,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003344481605351171</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3560,19 +3437,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="K54">
-        <v>0.004618937644341801</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3584,1289 +3461,665 @@
         <v>0</v>
       </c>
       <c r="Q54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.003344481605351171</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K55">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K56">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K57">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.003344481605351171</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K56">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.003344481605351171</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K57">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K59">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>8</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K59">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K61">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K62">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K63">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K64">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K65">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K66">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K67">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K69">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K70">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K71">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K72">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K73">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K74">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
         <v>5</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K60">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>18</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K61">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K78">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K79">
+        <v>0.002439024390243902</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K62">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K63">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K64">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K65">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>10</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K66">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>11</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K67">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K68">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K69">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K70">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K71">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>5</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K72">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>14</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K73">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>34</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K74">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K75">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>5</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K76">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K77">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>5</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K78">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K79">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.001672240802675585</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>8</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="K80">
-        <v>0.002309468822170901</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4884,15 +4137,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="K81">
-        <v>0.002309468822170901</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4910,15 +4163,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="K82">
-        <v>0.002309468822170901</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4936,15 +4189,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="K83">
-        <v>0.002309468822170901</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4962,15 +4215,15 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K84">
-        <v>0.002309468822170901</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -4988,15 +4241,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="K85">
-        <v>0.002309468822170901</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5014,397 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K86">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K87">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K88">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K89">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K90">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K91">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K92">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K93">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K94">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K95">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95">
         <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K96">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K97">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="10:17">
-      <c r="J98" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K98">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="10:17">
-      <c r="J99" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K99">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="10:17">
-      <c r="J100" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K100">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
